--- a/unit01/activity1/WT.activity.01.feedback.xlsx
+++ b/unit01/activity1/WT.activity.01.feedback.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/ws/ESPOL/courses/2020-1/WT/WT-2020I/unit01/activity1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christian.apolinario\Documents\GitHub\WT-2020I\unit01\activity1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C14364-F7D4-F24D-BB0A-1BF42582C24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2800" windowWidth="24240" windowHeight="15200" xr2:uid="{45ED6959-FA60-534C-A963-50BDC1119F15}"/>
+    <workbookView xWindow="1275" yWindow="2805" windowWidth="24240" windowHeight="15195"/>
   </bookViews>
   <sheets>
     <sheet name="rublic.workGroup" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'rublic.workGroup'!$A$2:$H$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>GROUP:</t>
   </si>
@@ -114,13 +113,52 @@
   </si>
   <si>
     <t>VIDEO LINK:</t>
+  </si>
+  <si>
+    <t>Web 1.0</t>
+  </si>
+  <si>
+    <t>Christian Apolinario Brunis - Omar Morejon - Christian Florencia - Jajayra Castillo</t>
+  </si>
+  <si>
+    <t>1,2,4,5,6,7</t>
+  </si>
+  <si>
+    <t>Bueno contenido</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1iWzAnJOHm0&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Contenido visual adecuado</t>
+  </si>
+  <si>
+    <t>Mejorar en formato de presentación</t>
+  </si>
+  <si>
+    <t>Contenido del tema adecuado y buenos ejemplos</t>
+  </si>
+  <si>
+    <t>Poco contenido gráfico y textual de tema</t>
+  </si>
+  <si>
+    <t>Falta presentaación del equipo</t>
+  </si>
+  <si>
+    <t>Voces roboticas y poco fluidas</t>
+  </si>
+  <si>
+    <t>Buenos ejemplos</t>
+  </si>
+  <si>
+    <t>Mejorar el audio en ciertas partes del video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +195,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -237,10 +282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -283,6 +329,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,11 +347,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,70 +664,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72C0E2-A8BF-DC42-A80A-948391080FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="5" customWidth="1"/>
-    <col min="4" max="8" width="20.33203125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="5" customWidth="1"/>
+    <col min="4" max="8" width="20.28515625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>43960</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -687,13 +745,13 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
         <v>13</v>
@@ -711,100 +769,114 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="48.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
       <c r="B18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -817,21 +889,23 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+    <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
       <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -844,8 +918,8 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
       <c r="B24" s="9" t="s">
         <v>3</v>
       </c>
@@ -856,23 +930,25 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+    <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -883,107 +959,121 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+    <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+    <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
       <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+    <row r="34" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
       <c r="B34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
+    <row r="35" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+    <row r="37" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
       <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H42" s="13"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H48" s="13"/>
       <c r="J48" s="13"/>
     </row>
-    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H54" s="13"/>
       <c r="J54" s="13"/>
     </row>
@@ -1002,7 +1092,10 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A29:A30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="6"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" verticalDpi="0" copies="6" r:id="rId2"/>
 </worksheet>
 </file>